--- a/Project progress.xlsx
+++ b/Project progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,7 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表页</t>
+    <t>最后完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.02.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长:吴鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛永卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,19 +62,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>葛永卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.02.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组长:吴鑫</t>
+    <t>购物车页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求用户登录的界面;登录成功后的界面;短信登陆页面;忘记密码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可实现登录之无论怎么跳转可以保持登录状态,退出登录及真正退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分类页为第一个列表页;点击'爱情鲜花'跳转到第二个列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第二个分类列表中的'岁月静好'调转到当前详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加入购物车可实现跳转到购物车页,并将信息动态显示在购物车页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除可实现删除vuex中存入的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,20 +170,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,67 +539,127 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project progress.xlsx
+++ b/Project progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,26 @@
   </si>
   <si>
     <t>点击删除可实现删除vuex中存入的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5h5h5h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录需要连接mongodb数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,6 +232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,9 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,12 +559,12 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -555,63 +575,66 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -621,33 +644,45 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">

--- a/Project progress.xlsx
+++ b/Project progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,18 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可实现登录之无论怎么跳转可以保持登录状态,退出登录及真正退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表页:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击分类页为第一个列表页;点击'爱情鲜花'跳转到第二个列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击删除可实现删除vuex中存入的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +123,22 @@
   </si>
   <si>
     <t>登录需要连接mongodb数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任意商品即可进入对应的详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分类页为第一个列表页;点击任意商品可跳转到第二个列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除可实现删除vuex中存入的数据,合计价格会显示购物车中存在商品的总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可实现登录之无论怎么跳转可以保持登录状态,退出登录及去除vuex中存储的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +234,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,15 +555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -579,10 +587,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -590,8 +598,8 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -600,23 +608,23 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
@@ -631,70 +639,99 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project progress.xlsx
+++ b/Project progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>可实现登录之无论怎么跳转可以保持登录状态,退出登录及去除vuex中存储的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任意商品即可进入对应的详情页,列表页可实现选项卡,上拉加载更多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,9 +259,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,10 +594,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -598,8 +605,8 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -608,23 +615,23 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
@@ -643,15 +650,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" t="s">
         <v>22</v>
       </c>
@@ -660,15 +667,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H12" t="s">
@@ -687,40 +694,49 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
